--- a/Employee_Reports28/Rommel Tamayo Eleosida Q0540.xlsx
+++ b/Employee_Reports28/Rommel Tamayo Eleosida Q0540.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -574,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -623,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -721,11 +718,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -770,11 +767,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -819,11 +816,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -868,11 +865,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -917,11 +914,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -966,11 +963,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1015,11 +1012,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1064,11 +1061,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1113,11 +1110,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1162,11 +1159,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1211,11 +1208,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1260,11 +1257,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1309,11 +1306,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1358,11 +1355,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1407,11 +1404,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1451,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1502,11 +1499,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1549,11 +1546,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1586,11 +1583,11 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>-41</v>
+        <v>-49</v>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1633,11 +1630,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1680,11 +1677,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1727,11 +1724,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1764,11 +1761,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1811,11 +1808,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1858,11 +1855,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1905,11 +1902,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1952,11 +1949,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1989,11 +1986,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2036,11 +2033,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2083,11 +2080,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2123,7 +2120,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -2183,7 +2180,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -2208,7 +2205,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -2233,7 +2230,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -2258,7 +2255,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -2283,7 +2280,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
@@ -2308,7 +2305,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
@@ -2333,7 +2330,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F9" s="3" t="n"/>
@@ -2358,7 +2355,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F10" s="3" t="n"/>
@@ -2383,7 +2380,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -2408,7 +2405,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F12" s="3" t="n"/>
@@ -2433,7 +2430,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F13" s="3" t="n"/>
@@ -2458,7 +2455,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F14" s="3" t="n"/>
@@ -2483,7 +2480,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F15" s="3" t="n"/>
